--- a/30_KnowHow/TheRegularExpression/The regular expression.xlsx
+++ b/30_KnowHow/TheRegularExpression/The regular expression.xlsx
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
